--- a/Data/Processed/Angiosperms/missing_powo_ipni/Eriocaulaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Eriocaulaceae.xlsx
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -19154,7 +19154,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Torrey Bot. Club 58: 331. 1931 </t>
+          <t>Bull. Torrey Bot. Club 58: 331. 1931</t>
         </is>
       </c>
       <c r="J324" t="b">
@@ -19222,7 +19222,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -19232,7 +19232,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 206, tab. 136. 1928 </t>
+          <t>Floral. Mont. 206, tab. 136. 1928</t>
         </is>
       </c>
       <c r="J325" t="b">
@@ -19300,7 +19300,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -19310,7 +19310,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 220, tab. 146. 1928 </t>
+          <t>Floral. Mont. 220, tab. 146. 1928</t>
         </is>
       </c>
       <c r="J326" t="b">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 208, tab. 137. 1928 </t>
+          <t>Floral. Mont. 208, tab. 137. 1928</t>
         </is>
       </c>
       <c r="J327" t="b">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 246, tab. 1928 </t>
+          <t>Floral. Mont. 246, tab. 1928</t>
         </is>
       </c>
       <c r="J328" t="b">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 94, tab. 60, 61. 1928 </t>
+          <t>Floral. Mont. 94, tab. 60, 61. 1928</t>
         </is>
       </c>
       <c r="J329" t="b">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 9: 187. 1963 </t>
+          <t>Phytologia 9: 187. 1963</t>
         </is>
       </c>
       <c r="J330" t="b">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Missouri Bot. Gard. 78: 434, figs. 3H, I, 6. 1991 </t>
+          <t>Ann. Missouri Bot. Gard. 78: 434, figs. 3H, I, 6. 1991</t>
         </is>
       </c>
       <c r="J331" t="b">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -19778,7 +19778,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 350, tab. 222. 1928 </t>
+          <t>Floral. Mont. 350, tab. 222. 1928</t>
         </is>
       </c>
       <c r="J332" t="b">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floral. Mont. 347, tab. 220. 1928 </t>
+          <t>Floral. Mont. 347, tab. 220. 1928</t>
         </is>
       </c>
       <c r="J333" t="b">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. New York Bot. Gard. 8: 102. 1953 </t>
+          <t>Mem. New York Bot. Gard. 8: 102. 1953</t>
         </is>
       </c>
       <c r="J334" t="b">
